--- a/操作码.xlsx
+++ b/操作码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/Datapath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36DE253A-835A-D348-99CB-E0B30C86D73C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{129E9BE1-ED61-D34D-A950-10C41A64AE68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="89">
   <si>
     <t>wb_data_mux</t>
   </si>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>reg2_write_enable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_data</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -276,10 +272,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>im_10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>rz</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -301,6 +293,10 @@
   </si>
   <si>
     <t>imdata_mux</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_11</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +361,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +434,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,542 +730,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="15" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>79</v>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>85</v>
+      <c r="J1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>88</v>
+      <c r="J2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>82</v>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>87</v>
+      <c r="H4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
         <v>16</v>
       </c>
+      <c r="K4" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15">
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="I5" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="K5" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>80</v>
+      <c r="H6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>80</v>
+      <c r="H7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>83</v>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+      <c r="G10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>86</v>
+      <c r="G11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
@@ -1252,350 +1242,326 @@
       <c r="M12" t="s">
         <v>18</v>
       </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="15">
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="D13" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>14</v>
+      <c r="H13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="K13" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I14" t="s">
-        <v>14</v>
+      <c r="H14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="14">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
+      <c r="C15" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>18</v>
+      <c r="H15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="K15" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
-        <v>14</v>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
         <v>48</v>
       </c>
+      <c r="K16" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
         <v>18</v>
       </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
         <v>16</v>
       </c>
+      <c r="K17" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
         <v>18</v>
       </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
+      <c r="K18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
         <v>18</v>
       </c>
-      <c r="N18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
+      <c r="C19" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>18</v>
+      <c r="K19" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="C20" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
+      <c r="H20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L20" t="s">
@@ -1604,42 +1570,39 @@
       <c r="M20" t="s">
         <v>18</v>
       </c>
-      <c r="N20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="C21" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I21" t="s">
-        <v>14</v>
+      <c r="H21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L21" t="s">
@@ -1648,42 +1611,39 @@
       <c r="M21" t="s">
         <v>18</v>
       </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="12">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="L22" t="s">
@@ -1692,408 +1652,378 @@
       <c r="M22" t="s">
         <v>18</v>
       </c>
-      <c r="N22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="12">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
         <v>18</v>
       </c>
-      <c r="N23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="12">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>84</v>
+      <c r="H24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
       </c>
-      <c r="N24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15">
+    </row>
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="11">
-        <v>0</v>
+      <c r="C25" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="15" t="s">
         <v>25</v>
       </c>
+      <c r="I26" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
       </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="15">
+    </row>
+    <row r="27" spans="1:13" s="11" customFormat="1" ht="15">
       <c r="A27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="13">
         <v>1</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
+      <c r="C27" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="I27" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="J27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="11" customFormat="1">
+    </row>
+    <row r="28" spans="1:13" s="11" customFormat="1">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="12">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
         <v>18</v>
       </c>
-      <c r="N28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="11" customFormat="1">
+    </row>
+    <row r="29" spans="1:13" s="11" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I29" t="s">
-        <v>14</v>
+      <c r="H29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
         <v>48</v>
       </c>
+      <c r="K29" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="L29" t="s">
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="15">
+    <row r="30" spans="1:13" s="11" customFormat="1" ht="15">
       <c r="A30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="13">
         <v>0</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
+      <c r="C30" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="I30" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="K30" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="L30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N30" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="11" customFormat="1">
+    <row r="31" spans="1:13" s="11" customFormat="1">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>0</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="I31" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s">
         <v>16</v>
       </c>
+      <c r="K31" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="L31" t="s">
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N31">
+  <sortState ref="A2:M31">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/操作码.xlsx
+++ b/操作码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/Datapath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{129E9BE1-ED61-D34D-A950-10C41A64AE68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C38A5D2-B527-1C4B-84CB-D7C5CAFD6B4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,6 +315,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,22 +323,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -732,11 +737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/操作码.xlsx
+++ b/操作码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/Datapath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C38A5D2-B527-1C4B-84CB-D7C5CAFD6B4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F310B83B-AFF7-0A46-8C2C-DBD2578C6E47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,19 +738,19 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16.83203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="15" customWidth="1"/>
     <col min="8" max="9" width="12.6640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
@@ -766,13 +766,13 @@
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -807,13 +807,13 @@
       <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -848,13 +848,13 @@
       <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -889,13 +889,13 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -930,13 +930,13 @@
       <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -971,13 +971,13 @@
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -1012,13 +1012,13 @@
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="15" t="s">
@@ -1053,13 +1053,13 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -1094,13 +1094,13 @@
       <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -1135,13 +1135,13 @@
       <c r="C10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="15" t="s">
@@ -1176,13 +1176,13 @@
       <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -1217,13 +1217,13 @@
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -1258,13 +1258,13 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -1299,13 +1299,13 @@
       <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -1340,13 +1340,13 @@
       <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -1381,13 +1381,13 @@
       <c r="C16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -1422,13 +1422,13 @@
       <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -1463,13 +1463,13 @@
       <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -1504,13 +1504,13 @@
       <c r="C19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -1545,13 +1545,13 @@
       <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -1586,13 +1586,13 @@
       <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -1627,13 +1627,13 @@
       <c r="C22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="15" t="s">
@@ -1668,13 +1668,13 @@
       <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -1709,13 +1709,13 @@
       <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="15" t="s">
@@ -1750,13 +1750,13 @@
       <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -1791,13 +1791,13 @@
       <c r="C26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -1832,13 +1832,13 @@
       <c r="C27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -1873,13 +1873,13 @@
       <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -1914,13 +1914,13 @@
       <c r="C29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -1955,13 +1955,13 @@
       <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -1996,13 +1996,13 @@
       <c r="C31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="15" t="s">

--- a/操作码.xlsx
+++ b/操作码.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/Datapath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F310B83B-AFF7-0A46-8C2C-DBD2578C6E47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E49F43-048B-BC47-BB98-9EFB33173953}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,10 +738,10 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1112,8 +1112,8 @@
       <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
-        <v>18</v>
+      <c r="J9" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>18</v>
@@ -1153,8 +1153,8 @@
       <c r="I10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>18</v>
+      <c r="J10" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>18</v>
@@ -1194,8 +1194,8 @@
       <c r="I11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>18</v>
+      <c r="J11" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>18</v>

--- a/操作码.xlsx
+++ b/操作码.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suxy/学习/7-大四上/计算机组成原理/project/三星期/CPU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E49F43-048B-BC47-BB98-9EFB33173953}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,54 +256,54 @@
   </si>
   <si>
     <t>reg_write_enable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>reg_data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>im</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>im_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>rz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>reg_wb_addr_mux</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sp</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>im_8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>imdata_mux</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>im_11</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,20 +320,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -353,14 +338,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -402,11 +379,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,53 +393,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,1296 +702,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="15" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="8" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="8" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="10" t="s">
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25">
+      <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="I6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="I7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>0</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="G10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="15">
-      <c r="A13" s="10" t="s">
+      <c r="H12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="14.25">
+      <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="11" t="s">
+      <c r="K13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="H14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="17" t="s">
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="D23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="L23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="D24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="I24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15">
-      <c r="A25" s="10" t="s">
+      <c r="L24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.25">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="D25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="16" t="s">
+      <c r="H25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="I26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="11" customFormat="1" ht="15">
-      <c r="A27" s="10" t="s">
+      <c r="L26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" ht="14.25">
+      <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="16" t="s">
+      <c r="I27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="11" customFormat="1">
-      <c r="A28" s="3" t="s">
+      <c r="L27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="6" customFormat="1">
+      <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="D28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="11" customFormat="1">
-      <c r="A29" s="3" t="s">
+      <c r="L28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1">
+      <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>0</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="K29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="11" customFormat="1" ht="15">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="14.25">
+      <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>0</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="E30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" s="11" t="s">
+      <c r="K30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="11" customFormat="1">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:13" s="6" customFormat="1">
+      <c r="A31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>0</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="K31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2031,8 +2000,8 @@
   <sortState ref="A2:M31">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>